--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/estimate_g1.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/estimate_g1.xlsx
@@ -371,26 +371,17 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2.523105798629359</v>
-      </c>
-      <c r="B2">
-        <v>0.1298753223863572</v>
+        <v>0.3900568438907801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.323442228101604</v>
-      </c>
-      <c r="B3">
-        <v>0.05558999546067868</v>
+        <v>0.418479726423334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.5020829811372698</v>
-      </c>
-      <c r="B4">
-        <v>0.1668988728105822</v>
+        <v>3.774419420570856</v>
       </c>
     </row>
   </sheetData>
